--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1995014.560827837</v>
+        <v>2110630.949844741</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651859</v>
+        <v>167.7248783737008</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739388</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179685</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.3497628767429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.19720963060414</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500669</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807509</v>
+        <v>43.94290942807545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1905846264271</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>131.222512744021</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.5256830212812</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.166028418023</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>89.11747410137879</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>72.63544656439282</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>25.67913628361516</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>57.84527740626037</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>12.24862359727953</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20.64107630343871</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>144.6368741717831</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>235.1782700391803</v>
+        <v>338.4805049597838</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>190.6486043614985</v>
+        <v>235.5249945884901</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,10 +1429,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>17.48314223074792</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>11.76284745948067</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.6225301034165</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>48.34531439065389</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.090968037234</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.1270172505054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>33.24617119909943</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>97.98413062224144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>103.780257294551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>150.672680124696</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0.6324680438218387</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>179.4515336021209</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.0998442038081</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>108.3106907504111</v>
       </c>
       <c r="X37" t="n">
-        <v>22.04658882052573</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>150.4550614441516</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63637568893693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.619672595757761</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>76.94227792014438</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>156.5238857907026</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.5753214244837</v>
+        <v>573.048889739619</v>
       </c>
       <c r="C2" t="n">
-        <v>410.5753214244837</v>
+        <v>573.048889739619</v>
       </c>
       <c r="D2" t="n">
-        <v>410.5753214244837</v>
+        <v>573.048889739619</v>
       </c>
       <c r="E2" t="n">
-        <v>410.5753214244837</v>
+        <v>573.048889739619</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752802</v>
+        <v>307.0056425020633</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377187</v>
+        <v>137.586573437719</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377187</v>
+        <v>137.586573437719</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121487</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467527</v>
+        <v>49.15993901467323</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935605</v>
+        <v>141.9970572935559</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960044</v>
+        <v>294.0714735959968</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796083</v>
+        <v>494.9530007795971</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670469</v>
+        <v>703.6988094670319</v>
       </c>
       <c r="O2" t="n">
-        <v>887.476296028912</v>
+        <v>887.4762960288939</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108087</v>
+        <v>1009.825128108066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060743</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060743</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193612</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193612</v>
+        <v>839.0921369771746</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193612</v>
+        <v>839.0921369771746</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193612</v>
+        <v>573.048889739619</v>
       </c>
       <c r="W2" t="n">
-        <v>899.1940867193612</v>
+        <v>573.048889739619</v>
       </c>
       <c r="X2" t="n">
-        <v>633.1508394817997</v>
+        <v>573.048889739619</v>
       </c>
       <c r="Y2" t="n">
-        <v>410.5753214244837</v>
+        <v>573.048889739619</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.1638138089327</v>
+        <v>349.3892659956181</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7107845278057</v>
+        <v>349.3892659956181</v>
       </c>
       <c r="D3" t="n">
-        <v>326.7763748665544</v>
+        <v>349.3892659956181</v>
       </c>
       <c r="E3" t="n">
-        <v>326.7763748665544</v>
+        <v>349.3892659956181</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3448499871563</v>
+        <v>202.854708022503</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>65.45740238129062</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129072</v>
+        <v>65.45740238129062</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121487</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121487</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371246</v>
+        <v>191.5864341124639</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433213</v>
+        <v>338.1990901420705</v>
       </c>
       <c r="M3" t="n">
-        <v>432.71622852991</v>
+        <v>528.6460126286565</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779618</v>
+        <v>738.5421433767057</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171761101</v>
+        <v>908.3363012748516</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062241</v>
+        <v>1025.27801606222</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060743</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060743</v>
+        <v>1035.156931155238</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060743</v>
+        <v>886.5091315712091</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060743</v>
+        <v>689.6975574313003</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.531259060743</v>
+        <v>689.6975574313003</v>
       </c>
       <c r="V3" t="n">
-        <v>818.3791508290008</v>
+        <v>557.149564760572</v>
       </c>
       <c r="W3" t="n">
-        <v>818.3791508290008</v>
+        <v>557.149564760572</v>
       </c>
       <c r="X3" t="n">
-        <v>818.3791508290008</v>
+        <v>557.149564760572</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.3791508290008</v>
+        <v>349.3892659956181</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.1571730519514</v>
+        <v>488.0365411038501</v>
       </c>
       <c r="C4" t="n">
-        <v>463.1571730519514</v>
+        <v>319.1003581759433</v>
       </c>
       <c r="D4" t="n">
-        <v>313.0405336396157</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0405336396157</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0405336396157</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4706538862886</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4706538862886</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121487</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121487</v>
+        <v>21.07062518121441</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481213</v>
+        <v>126.3277805481198</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504877</v>
+        <v>316.5471352504849</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570861</v>
+        <v>527.495897157082</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210649</v>
+        <v>738.0340231670095</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376856</v>
+        <v>917.249813883629</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351429</v>
+        <v>1047.079201097371</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060743</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060743</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778288048</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="T4" t="n">
-        <v>621.2639235784981</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="U4" t="n">
-        <v>621.2639235784981</v>
+        <v>963.5136084532671</v>
       </c>
       <c r="V4" t="n">
-        <v>621.2639235784981</v>
+        <v>708.8291202473803</v>
       </c>
       <c r="W4" t="n">
-        <v>621.2639235784981</v>
+        <v>708.8291202473803</v>
       </c>
       <c r="X4" t="n">
-        <v>621.2639235784981</v>
+        <v>708.8291202473803</v>
       </c>
       <c r="Y4" t="n">
-        <v>621.2639235784981</v>
+        <v>488.0365411038501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="D5" t="n">
-        <v>634.167062227511</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8439049111296</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>94.46624834395163</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>94.46624834395163</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515908</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836798</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.46945746807961</v>
+        <v>444.8797293793787</v>
       </c>
       <c r="C6" t="n">
-        <v>33.46945746807961</v>
+        <v>270.4267000982517</v>
       </c>
       <c r="D6" t="n">
-        <v>33.46945746807961</v>
+        <v>270.4267000982517</v>
       </c>
       <c r="E6" t="n">
-        <v>33.46945746807961</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>33.46945746807961</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004805</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="U6" t="n">
-        <v>691.074259448092</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="V6" t="n">
-        <v>455.9221512163493</v>
+        <v>652.7312295849115</v>
       </c>
       <c r="W6" t="n">
-        <v>201.6847944881476</v>
+        <v>652.7312295849115</v>
       </c>
       <c r="X6" t="n">
-        <v>201.6847944881476</v>
+        <v>444.8797293793787</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.6847944881476</v>
+        <v>444.8797293793787</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>908.7576673072538</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>908.7576673072538</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="U7" t="n">
-        <v>642.3800107400758</v>
+        <v>563.0088271968607</v>
       </c>
       <c r="V7" t="n">
-        <v>387.695522534189</v>
+        <v>308.3243389909738</v>
       </c>
       <c r="W7" t="n">
-        <v>387.695522534189</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="X7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.7059716361716</v>
+        <v>41.94668242379595</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>1918.618935688524</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.574752076239</v>
+        <v>1918.618935688524</v>
       </c>
       <c r="D8" t="n">
-        <v>1085.574752076239</v>
+        <v>1560.353237081774</v>
       </c>
       <c r="E8" t="n">
-        <v>699.7864994779948</v>
+        <v>1174.56498448353</v>
       </c>
       <c r="F8" t="n">
-        <v>288.8005946883872</v>
+        <v>763.579079693922</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080772</v>
+        <v>1918.618935688524</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180674</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495403</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328579</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925525</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101688</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2318.569789933986</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.5800553833137</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554068</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554068</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730137</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751033</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751033</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234363</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429098</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429098</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232113</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="W10" t="n">
-        <v>769.5800553833137</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="X10" t="n">
-        <v>769.5800553833137</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="Y10" t="n">
-        <v>769.5800553833137</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5033,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913444</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2715.159942084664</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>2715.159942084664</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>3312.538429711216</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>3940.136393265822</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>4492.046123505109</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P12" t="n">
-        <v>4492.046123505109</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.841029837709</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679487</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493493</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510507</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5522,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>451.5582443905442</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>284.3621451054242</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>142.6503139476223</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.1035305473698</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1673476194629</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>596.0507082071272</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>596.0507082071272</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2985.713220456422</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>2816.777037528515</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>2666.660398116179</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>2518.747304533786</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2419.773435218391</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>3167.361685286662</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048574</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>447.928008406947</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>280.731909121827</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2971.84874707406</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>2802.912564146153</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>2652.795924733818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4435.456226844497</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4146.381000188695</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3891.696511982808</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>3602.279341945848</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>3374.28979104783</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>3153.4972119043</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2198.653204476985</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1979.051739499926</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1689.976512844124</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.569791909146</v>
+        <v>944.1833428807391</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.777212765616</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7010,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
         <v>429.5088224239596</v>
@@ -7026,7 +7028,7 @@
         <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W40" t="n">
-        <v>3622.383176195499</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X40" t="n">
-        <v>3394.393625297482</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.601046153952</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273898</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239595</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872168</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3192.420589669522</v>
+        <v>3044.50749608713</v>
       </c>
       <c r="C43" t="n">
-        <v>3023.484406741615</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741615</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159222</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661311</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376191</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218389</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.02030972914</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389148</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098133</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671692</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650994</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305898</v>
+        <v>4546.067976004385</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328839</v>
+        <v>4326.466511027326</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673037</v>
+        <v>4037.391284371524</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673037</v>
+        <v>3782.706796165638</v>
       </c>
       <c r="W43" t="n">
-        <v>3642.838752636077</v>
+        <v>3493.289626128677</v>
       </c>
       <c r="X43" t="n">
-        <v>3414.849201738059</v>
+        <v>3265.30007523066</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.056622594529</v>
+        <v>3044.50749608713</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803936</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961522</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.53275017731</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.53275017731</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7836,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877185</v>
+        <v>60.59164343877308</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423078584</v>
+        <v>2.109135423079564</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>96.89877181692279</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181693038</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>170.9799771939064</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872721083</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069106</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179969</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>240.4465442417442</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.7511347056794</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.9223080965403</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>206.8218058926141</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.5151132204115</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>32.92052192791164</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>39.52450498097836</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.2940307724258</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>146.5858089828379</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>47.43691740068981</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.5144555516729</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>75.03697526434118</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>251.5051752800062</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.574752399523675</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.60981118522906</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>178.2123075861799</v>
       </c>
       <c r="X37" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>101.6825818796764</v>
       </c>
       <c r="W40" t="n">
-        <v>231.8866226476541</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.2123075861795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>104.0840080815002</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>129.6605885985416</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858552.9274819148</v>
+        <v>858552.9274819145</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>864446.4116981591</v>
+        <v>864446.4116981593</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752545</v>
@@ -26353,7 +26355,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909355</v>
+        <v>679702.412490929</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680881767</v>
+        <v>366.4703680942669</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059455</v>
+        <v>391128.363805944</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245434</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642228</v>
+        <v>68912.53318642078</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774139858</v>
+        <v>85.20559774274702</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.64613756981</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289266</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674015</v>
+        <v>253116.5477674032</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26448,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557731</v>
+        <v>63021.46164557686</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400585.1387523091</v>
+        <v>-400585.1387523034</v>
       </c>
       <c r="C6" t="n">
-        <v>278824.2446719155</v>
+        <v>278824.2446719096</v>
       </c>
       <c r="D6" t="n">
-        <v>-31557.81036188465</v>
+        <v>-31557.81036188285</v>
       </c>
       <c r="E6" t="n">
-        <v>-35813.60685501405</v>
+        <v>-35813.60685501636</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695294</v>
+        <v>471671.8347695293</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.8347695296</v>
+        <v>471671.8347695293</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695293</v>
+        <v>471671.8347695295</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695293</v>
+        <v>471671.8347695292</v>
       </c>
       <c r="J6" t="n">
-        <v>402759.3015831072</v>
+        <v>402759.3015831085</v>
       </c>
       <c r="K6" t="n">
-        <v>471586.6291717879</v>
+        <v>471586.6291717865</v>
       </c>
       <c r="L6" t="n">
         <v>376289.1886319593</v>
       </c>
       <c r="M6" t="n">
-        <v>339064.5410406028</v>
+        <v>339064.5410406025</v>
       </c>
       <c r="N6" t="n">
         <v>471671.8347695293</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695293</v>
+        <v>471671.8347695292</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.8347695294</v>
+        <v>471671.834769529</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960558</v>
+        <v>613.7700232960509</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651859</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960558</v>
+        <v>613.7700232960509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734224538</v>
+        <v>0.2849904734271149</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480634</v>
+        <v>320.0098783480614</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241317</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651859</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363202754</v>
+        <v>0.3310652363259886</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.870952098533</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651859</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363207492</v>
+        <v>0.3310652363259886</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.870952098533</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651859</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363202754</v>
+        <v>0.3310652363259886</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.870952098533</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.4932309765313</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708696</v>
+        <v>245.1104419623547</v>
       </c>
       <c r="H2" t="n">
-        <v>314.205365930518</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627103</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495479</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132832</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.8881757793107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>121.8720027627797</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642644</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881888</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>101.5780744054043</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.30629716065613</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825596</v>
+        <v>15.10853304825659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.527710471886</v>
+        <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>197.1411844331486</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>42.67117298250429</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>127.0885569156071</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>99.79980304914058</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>123.7740959891439</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>124.7799717194925</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>60.08229007181069</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>176.3694327337737</v>
+        <v>73.06719781317014</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>95.87439397509246</v>
+        <v>50.9980037481009</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079619</v>
+        <v>2.4674171790796</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524916</v>
+        <v>25.26943618524896</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646712</v>
+        <v>95.12510079646636</v>
       </c>
       <c r="J2" t="n">
-        <v>209.418948802909</v>
+        <v>209.4189488029074</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933494</v>
+        <v>313.8647179933469</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876074</v>
+        <v>389.3769364876043</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460645</v>
+        <v>433.2568667460611</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061246</v>
+        <v>440.2674158061211</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316515</v>
+        <v>415.7320362316482</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231234</v>
+        <v>354.8176746231206</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973344</v>
+        <v>266.4532968973323</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753603</v>
+        <v>154.993894375359</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827688</v>
+        <v>56.22626896827644</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142104</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263695</v>
+        <v>0.1973933743263679</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410384</v>
+        <v>1.320184578410374</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148977</v>
+        <v>12.75020369148966</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333999</v>
+        <v>45.45372342333962</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435881</v>
+        <v>124.7284912435871</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970838</v>
+        <v>213.1808579970821</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728974</v>
+        <v>286.6479717289718</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963504</v>
+        <v>334.5046626963477</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682341</v>
+        <v>343.3580057682314</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466145</v>
+        <v>314.105494846612</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643997</v>
+        <v>252.097351643995</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774378</v>
+        <v>168.5204033774365</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621669</v>
+        <v>81.96724952621604</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564901</v>
+        <v>24.52184951564881</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312029</v>
+        <v>5.321270296311987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963057</v>
+        <v>0.08685424857962988</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665019</v>
+        <v>1.10679840266501</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058081</v>
+        <v>9.840443980058003</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923529</v>
+        <v>33.28444650923503</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841681</v>
+        <v>78.25064706841619</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823539</v>
+        <v>128.5898507823529</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653065</v>
+        <v>164.5507370653052</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195719</v>
+        <v>173.4956805195706</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187297</v>
+        <v>169.3703410187284</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148701</v>
+        <v>156.4409233148689</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005036</v>
+        <v>133.8622359005026</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770442</v>
+        <v>92.67927351770368</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528346</v>
+        <v>49.76568090528306</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735309</v>
+        <v>19.28847761735294</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477805</v>
+        <v>4.729047720477768</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354653</v>
+        <v>0.06037082196354605</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.7767527663071</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578908</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>248.5245325067415</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,16 +33505,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>472.0729312464055</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>451.7125911569017</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,13 +34234,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>491.81973823108</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622274</v>
+        <v>28.37304427622109</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836887</v>
+        <v>93.77486694836637</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176202</v>
+        <v>153.610521517617</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187918</v>
+        <v>202.9106335187883</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095337</v>
+        <v>210.8543522095301</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099648</v>
+        <v>185.6338248099615</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678538</v>
+        <v>123.584678867851</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288496</v>
+        <v>44.14760702288285</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272485</v>
+        <v>172.2381908396459</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490998</v>
+        <v>148.0935919490976</v>
       </c>
       <c r="M3" t="n">
-        <v>192.370628774332</v>
+        <v>192.3706287743294</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936849008</v>
+        <v>212.016293684898</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021701</v>
+        <v>171.5092504021676</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465971</v>
+        <v>118.1229442296647</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141633</v>
+        <v>28.53862929141496</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564711</v>
+        <v>106.3203589564701</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256227</v>
+        <v>192.1407623256214</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814125</v>
+        <v>213.0795574814111</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979583</v>
+        <v>212.6647737474015</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289098</v>
+        <v>181.0260512289086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653971</v>
+        <v>131.1407951653961</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615469406</v>
+        <v>6.517230266009292</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.2318570365346</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7949786802857</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643587249</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,22 +36436,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>114.5501250924112</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>340.7312191630721</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>313.1582113770276</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317163</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>357.8453308167497</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2110630.949844741</v>
+        <v>2106326.632796497</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651801</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="G2" t="n">
-        <v>167.7248783737008</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651801</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>219.1522629091168</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>109.9880090506895</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807545</v>
+        <v>43.94290942807532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1905846264271</v>
+        <v>18.19058462642687</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>131.222512744021</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7.546375811217955</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>89.11747410137879</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.67913628361516</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>57.84527740626037</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>20.64107630343871</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>71.70103335589225</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>278.7886531304434</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>338.4805049597838</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812543241</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5249945884901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058081</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.76284745948067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.60395572454081</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>48.34531439065389</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>109.090968037234</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.24617119909943</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6324680438218387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>192.8170508184369</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>198.0998442038081</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>108.3106907504111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>150.4550614441516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>76.94227792014438</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.048889739619</v>
+        <v>832.1653369303076</v>
       </c>
       <c r="C2" t="n">
-        <v>573.048889739619</v>
+        <v>832.1653369303076</v>
       </c>
       <c r="D2" t="n">
-        <v>573.048889739619</v>
+        <v>566.1220896927498</v>
       </c>
       <c r="E2" t="n">
-        <v>573.048889739619</v>
+        <v>300.078842455192</v>
       </c>
       <c r="F2" t="n">
-        <v>307.0056425020633</v>
+        <v>34.03559521763421</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935559</v>
+        <v>141.9970572935576</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959968</v>
+        <v>294.0714735959996</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795971</v>
+        <v>494.9530007796012</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670319</v>
+        <v>703.6988094670372</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288939</v>
+        <v>887.4762960289004</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108066</v>
+        <v>1009.825128108074</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T2" t="n">
-        <v>839.0921369771746</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U2" t="n">
-        <v>839.0921369771746</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V2" t="n">
-        <v>573.048889739619</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W2" t="n">
-        <v>573.048889739619</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="X2" t="n">
-        <v>573.048889739619</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.048889739619</v>
+        <v>832.1653369303076</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349.3892659956181</v>
+        <v>659.1812953702249</v>
       </c>
       <c r="C3" t="n">
-        <v>349.3892659956181</v>
+        <v>484.7282660890979</v>
       </c>
       <c r="D3" t="n">
-        <v>349.3892659956181</v>
+        <v>335.7938564278467</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3892659956181</v>
+        <v>176.5564014223912</v>
       </c>
       <c r="F3" t="n">
-        <v>202.854708022503</v>
+        <v>65.45740238129066</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129062</v>
+        <v>65.45740238129066</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>65.45740238129066</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124639</v>
+        <v>95.65665001371107</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420705</v>
+        <v>242.2693060433185</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286565</v>
+        <v>432.7162285299055</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767057</v>
+        <v>642.6123592779555</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748516</v>
+        <v>812.4065171761023</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.27801606222</v>
+        <v>929.3482319634711</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155238</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712091</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="T3" t="n">
-        <v>689.6975574313003</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="U3" t="n">
-        <v>689.6975574313003</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="V3" t="n">
-        <v>557.149564760572</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="W3" t="n">
-        <v>557.149564760572</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="X3" t="n">
-        <v>557.149564760572</v>
+        <v>1035.156931155247</v>
       </c>
       <c r="Y3" t="n">
-        <v>349.3892659956181</v>
+        <v>827.396632390293</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0365411038501</v>
+        <v>190.0068081091215</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1003581759433</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9837187636075</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121441</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481198</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504849</v>
+        <v>316.5471352504859</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157082</v>
+        <v>526.666534903039</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670095</v>
+        <v>738.0340231670168</v>
       </c>
       <c r="O4" t="n">
-        <v>917.249813883629</v>
+        <v>917.2498138836366</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097371</v>
+        <v>1047.079201097379</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.53125906072</v>
+        <v>1045.908657231216</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.53125906072</v>
+        <v>820.4374029809087</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5136084532671</v>
+        <v>820.4374029809087</v>
       </c>
       <c r="V4" t="n">
-        <v>708.8291202473803</v>
+        <v>820.4374029809087</v>
       </c>
       <c r="W4" t="n">
-        <v>708.8291202473803</v>
+        <v>820.4374029809087</v>
       </c>
       <c r="X4" t="n">
-        <v>708.8291202473803</v>
+        <v>592.4478520828914</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.0365411038501</v>
+        <v>371.6552729393612</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836798</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836798</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165018</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1028.916998507423</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>814.482942342551</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W5" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.8797293793787</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>270.4267000982517</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>270.4267000982517</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849115</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>652.7312295849115</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>444.8797293793787</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>444.8797293793787</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.94668242379595</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C7" t="n">
-        <v>41.94668242379595</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D7" t="n">
-        <v>41.94668242379595</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>41.94668242379595</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4731,46 +4731,46 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>308.3243389909738</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>41.94668242379595</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>41.94668242379595</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.94668242379595</v>
+        <v>488.0630263227563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.618935688524</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C8" t="n">
-        <v>1918.618935688524</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="D8" t="n">
-        <v>1560.353237081774</v>
+        <v>351.4613336842746</v>
       </c>
       <c r="E8" t="n">
-        <v>1174.56498448353</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="F8" t="n">
-        <v>763.579079693922</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362704</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852815979</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872829</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923555</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740836</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664336</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664336</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2308.758267664336</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y8" t="n">
-        <v>1918.618935688524</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>507.2413987429694</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>801.9449557744422</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733664</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.49210333061</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506773</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.6669618009208</v>
+        <v>716.5983551657537</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>547.6621722378468</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>397.545532825511</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>249.6324392431179</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>102.7424917452076</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387896</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="W10" t="n">
-        <v>621.6669618009208</v>
+        <v>1347.028950037541</v>
       </c>
       <c r="X10" t="n">
-        <v>621.6669618009208</v>
+        <v>1119.039399139524</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.6669618009208</v>
+        <v>898.2468199959934</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972544</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>748.5648313007904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>598.4481918884546</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>598.4481918884546</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>451.5582443905442</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>284.3621451054242</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>142.6503139476223</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X34" t="n">
-        <v>944.1833428807391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807391</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.311582407852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3044.50749608713</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>2875.571313159223</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>2875.571313159223</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4546.067976004385</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.466511027326</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>4037.391284371524</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>3782.706796165638</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3493.289626128677</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>3265.30007523066</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>3044.50749608713</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7642,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877308</v>
+        <v>60.59164343877265</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079564</v>
+        <v>2.109135423079223</v>
       </c>
       <c r="K3" t="n">
-        <v>96.89877181692279</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96.8987718169255</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>177.6719212588957</v>
       </c>
       <c r="N4" t="n">
-        <v>170.9799771939064</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069106</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241482</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.8218058926141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>32.92052192791164</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>39.52450498097836</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>24.58839950885135</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.60981118522906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>104.0840080815002</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858552.9274819145</v>
+        <v>858552.9274819146</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>864446.4116981593</v>
+        <v>864446.4116981591</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
@@ -26340,7 +26340,7 @@
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26349,13 +26349,13 @@
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.412490929</v>
+        <v>679702.4124909313</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680942669</v>
+        <v>366.4703680922721</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.363805944</v>
+        <v>391128.3638059455</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642078</v>
+        <v>68912.53318642132</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774274702</v>
+        <v>85.20559774223</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756981</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.5477674026</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676992</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557686</v>
+        <v>63021.46164557702</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400585.1387523034</v>
+        <v>-400585.1387523055</v>
       </c>
       <c r="C6" t="n">
-        <v>278824.2446719096</v>
+        <v>278824.2446719113</v>
       </c>
       <c r="D6" t="n">
-        <v>-31557.81036188285</v>
+        <v>-31557.81036188477</v>
       </c>
       <c r="E6" t="n">
-        <v>-35813.60685501636</v>
+        <v>-36160.9861093716</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695293</v>
+        <v>471324.455515172</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.8347695293</v>
+        <v>471324.4555151722</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695295</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="J6" t="n">
-        <v>402759.3015831085</v>
+        <v>402411.922328751</v>
       </c>
       <c r="K6" t="n">
-        <v>471586.6291717865</v>
+        <v>471239.2499174302</v>
       </c>
       <c r="L6" t="n">
-        <v>376289.1886319593</v>
+        <v>375941.8093776024</v>
       </c>
       <c r="M6" t="n">
-        <v>339064.5410406025</v>
+        <v>338717.1617862454</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695293</v>
+        <v>471324.455515172</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151719</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.834769529</v>
+        <v>471324.4555151721</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960509</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651801</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960509</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734271149</v>
+        <v>0.284990473425637</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480614</v>
+        <v>320.0098783480634</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651801</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363259886</v>
+        <v>0.3310652363239797</v>
       </c>
       <c r="D4" t="n">
-        <v>376.870952098533</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651801</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259886</v>
+        <v>0.3310652363239797</v>
       </c>
       <c r="L4" t="n">
-        <v>376.870952098533</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651801</v>
+        <v>263.3828147651822</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259886</v>
+        <v>0.3310652363239797</v>
       </c>
       <c r="L4" t="n">
-        <v>376.870952098533</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.3002268555008</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.5475553070796</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765313</v>
+        <v>143.4932309765293</v>
       </c>
       <c r="G2" t="n">
-        <v>245.1104419623547</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495479</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>167.0856757469368</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>35.08120334269439</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>101.5780744054043</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825659</v>
+        <v>15.10853304825638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>197.1817446084013</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.1411844331486</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>156.7956928311331</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>127.0885569156071</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>99.79980304914058</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>124.7799717194925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>146.8836199962025</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>103.1417169418184</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>73.06719781317014</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193718</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>50.9980037481009</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4674171790796</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524896</v>
+        <v>25.26943618524903</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646636</v>
+        <v>95.12510079646663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933478</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876043</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460611</v>
+        <v>433.2568667460623</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061211</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.7320362316494</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231206</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827644</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.1973933743263685</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289718</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963477</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682314</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466129</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643995</v>
+        <v>252.0973516439957</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621604</v>
+        <v>81.96724952621626</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564888</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311987</v>
+        <v>5.321270296312002</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962988</v>
+        <v>0.08685424857963013</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058003</v>
+        <v>9.84044398005803</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923503</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841619</v>
+        <v>78.2506470684164</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187284</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770368</v>
+        <v>92.67927351770395</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528306</v>
+        <v>49.7656809052832</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477768</v>
+        <v>4.729047720477781</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354605</v>
+        <v>0.06037082196354622</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>483.3274636075166</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622109</v>
+        <v>28.37304427622166</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836637</v>
+        <v>93.77486694836722</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.9106335187896</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095301</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.584678867852</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288285</v>
+        <v>44.14760702288359</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.2381908396459</v>
+        <v>75.33941902272375</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490976</v>
+        <v>148.0935919490984</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743294</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684898</v>
+        <v>212.016293684899</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021676</v>
+        <v>171.5092504021684</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296647</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141496</v>
+        <v>125.4374011083409</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>212.2418178308617</v>
       </c>
       <c r="N4" t="n">
-        <v>212.6647737474015</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009292</v>
+        <v>6.517230266009562</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>397.6203974676339</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>568.1422977634704</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>160.8335108287869</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>340.7312191630721</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2106326.632796497</v>
+        <v>2108087.163099282</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>103.8014741351772</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651822</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.1522629091168</v>
+        <v>263.3828147651816</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>109.9880090506895</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.861706085378959</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807532</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642687</v>
+        <v>18.19058462642691</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>82.1474445008074</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.546375811217955</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
-        <v>225.1346772411287</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>98.16050495412048</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>101.7580609064215</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.70103335589225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.7513593345863</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>278.7886531304434</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812543241</v>
+        <v>52.34471198851599</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>72.26558381699925</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>36.2249434387023</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>215.0524136249007</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>186.3821020736954</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>192.8170508184369</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>85.89092205733026</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.1653369303076</v>
+        <v>682.638037949253</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1653369303076</v>
+        <v>682.638037949253</v>
       </c>
       <c r="D2" t="n">
-        <v>566.1220896927498</v>
+        <v>682.638037949253</v>
       </c>
       <c r="E2" t="n">
-        <v>300.078842455192</v>
+        <v>682.638037949253</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763421</v>
+        <v>416.5947907116958</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121457</v>
+        <v>403.6298206752762</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121457</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467414</v>
+        <v>49.1599390146738</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935576</v>
+        <v>141.9970572935572</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959996</v>
+        <v>294.071473595999</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796012</v>
+        <v>494.9530007796002</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670372</v>
+        <v>703.698809467036</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289004</v>
+        <v>887.4762960288988</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108074</v>
+        <v>1009.825128108072</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="Y2" t="n">
-        <v>832.1653369303076</v>
+        <v>787.4880118231694</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.1812953702249</v>
+        <v>659.1812953702229</v>
       </c>
       <c r="C3" t="n">
-        <v>484.7282660890979</v>
+        <v>484.7282660890959</v>
       </c>
       <c r="D3" t="n">
-        <v>335.7938564278467</v>
+        <v>335.7938564278446</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5564014223912</v>
+        <v>176.5564014223891</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129066</v>
+        <v>30.02184344927409</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129066</v>
+        <v>30.02184344927409</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129066</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371107</v>
+        <v>95.65665001371093</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433185</v>
+        <v>242.2693060433182</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299055</v>
+        <v>432.7162285299049</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779555</v>
+        <v>642.6123592779547</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171761023</v>
+        <v>812.4065171761013</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634711</v>
+        <v>929.3482319634699</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="W3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="X3" t="n">
-        <v>1035.156931155247</v>
+        <v>1035.156931155245</v>
       </c>
       <c r="Y3" t="n">
-        <v>827.396632390293</v>
+        <v>827.396632390291</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0068081091215</v>
+        <v>423.1006641889394</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121457</v>
+        <v>254.1644812610325</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121457</v>
+        <v>104.0478418486967</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121457</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481203</v>
+        <v>125.4984182940743</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504859</v>
+        <v>315.7177729964397</v>
       </c>
       <c r="M4" t="n">
-        <v>526.666534903039</v>
+        <v>526.6665349030371</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670168</v>
+        <v>738.0340231670149</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836366</v>
+        <v>917.2498138836347</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097379</v>
+        <v>1047.079201097377</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060729</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S4" t="n">
-        <v>1045.908657231216</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="T4" t="n">
-        <v>820.4374029809087</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="U4" t="n">
-        <v>820.4374029809087</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="V4" t="n">
-        <v>820.4374029809087</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="W4" t="n">
-        <v>820.4374029809087</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4478520828914</v>
+        <v>825.5417081627093</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6552729393612</v>
+        <v>604.7491290191791</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.4151888127974</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>268.4151888127974</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>268.4151888127974</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4573,7 +4573,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.7928453799753</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>720.5513865680996</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>512.6998863625668</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>952.0695998985281</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>952.0695998985281</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>952.0695998985281</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.0630263227563</v>
+        <v>503.2874698569806</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.689549231437</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="C8" t="n">
-        <v>709.7270322910251</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="D8" t="n">
-        <v>351.4613336842746</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="E8" t="n">
         <v>69.85663355251363</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>62.91113280331016</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.51718528161</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.42872127137</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.289389295559</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429694</v>
+        <v>298.3188265310627</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744422</v>
+        <v>932.4978103101012</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1295.759829269323</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1843.432194560475</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>2175.502629736638</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2422.685363568935</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4944,22 +4944,22 @@
         <v>547.6621722378468</v>
       </c>
       <c r="D10" t="n">
-        <v>397.545532825511</v>
+        <v>547.6621722378468</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431179</v>
+        <v>399.7490786554537</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452076</v>
+        <v>252.8591311575433</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312227</v>
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502967</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523863</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5357,7 +5357,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,49 +5439,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5904,19 +5904,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,19 +6551,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,7 +7417,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,7 +7654,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877265</v>
+        <v>60.59164343877273</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079223</v>
+        <v>2.109135423079294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.8987718169255</v>
+        <v>96.89877181692481</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941011</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588957</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241482</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621875</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.0073097921269</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>250.2980548978887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3.53223972719411</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>65.75554125013258</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.58839950885135</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>200.6320762792607</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
@@ -26340,22 +26340,22 @@
         <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909313</v>
+        <v>679702.4124909309</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680922721</v>
+        <v>366.4703680927479</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059455</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642132</v>
+        <v>68912.53318642113</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774223</v>
+        <v>85.2055977424787</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674026</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26426,19 +26426,19 @@
         <v>142746.9572676992</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557702</v>
+        <v>63021.46164557699</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26524,46 +26524,46 @@
         <v>-400585.1387523055</v>
       </c>
       <c r="C6" t="n">
-        <v>278824.2446719113</v>
+        <v>278824.2446719109</v>
       </c>
       <c r="D6" t="n">
-        <v>-31557.81036188477</v>
+        <v>-31557.81036188453</v>
       </c>
       <c r="E6" t="n">
-        <v>-36160.9861093716</v>
+        <v>-35848.34478045029</v>
       </c>
       <c r="F6" t="n">
-        <v>471324.455515172</v>
+        <v>471637.0968440932</v>
       </c>
       <c r="G6" t="n">
-        <v>471324.4555151722</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="H6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="I6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="J6" t="n">
-        <v>402411.922328751</v>
+        <v>402724.5636576724</v>
       </c>
       <c r="K6" t="n">
-        <v>471239.2499174302</v>
+        <v>471551.8912463508</v>
       </c>
       <c r="L6" t="n">
-        <v>375941.8093776024</v>
+        <v>376254.4507065237</v>
       </c>
       <c r="M6" t="n">
-        <v>338717.1617862454</v>
+        <v>339029.8031151668</v>
       </c>
       <c r="N6" t="n">
-        <v>471324.455515172</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="O6" t="n">
-        <v>471324.4555151719</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="P6" t="n">
-        <v>471324.4555151721</v>
+        <v>471637.0968440935</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960526</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960526</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473425637</v>
+        <v>0.2849904734259781</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480634</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241319</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0.3310652363244913</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0.331065236324946</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651822</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363239797</v>
+        <v>0.3310652363244913</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>278.9323675283034</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.3002268555008</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070796</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765293</v>
+        <v>143.4932309765298</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>50.82255116533648</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.0856757469368</v>
+        <v>122.8551238908719</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>35.08120334269439</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>90.62353445962782</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807535</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>64.28651814576178</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825638</v>
+        <v>15.10853304825642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1817446084013</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>156.7956928311331</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27703,10 +27703,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>153.5344782067991</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>184.500569596256</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.8836199962025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>43.5215324364213</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>103.1417169418184</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193718</v>
+        <v>113.9618880562882</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039004</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-8.371574493651873e-13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.168676190304566e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079606</v>
+        <v>2.467417179079605</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524903</v>
+        <v>25.26943618524901</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646663</v>
+        <v>95.12510079646657</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029079</v>
+        <v>209.4189488029078</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933478</v>
+        <v>313.8647179933476</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876053</v>
+        <v>389.3769364876051</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460623</v>
+        <v>433.256866746062</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061222</v>
+        <v>440.267415806122</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316494</v>
+        <v>415.7320362316491</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231215</v>
+        <v>354.8176746231214</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973331</v>
+        <v>266.4532968973329</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753595</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827659</v>
+        <v>56.22626896827656</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263685</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333975</v>
+        <v>45.45372342333972</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970827</v>
+        <v>213.1808579970826</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289725</v>
+        <v>286.6479717289724</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963486</v>
+        <v>334.5046626963484</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682323</v>
+        <v>343.3580057682321</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466129</v>
+        <v>314.1054948466127</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439957</v>
+        <v>252.0973516439955</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5204033774368</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621626</v>
+        <v>81.96724952621622</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564888</v>
+        <v>24.52184951564886</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312002</v>
+        <v>5.321270296311998</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963013</v>
+        <v>0.08685424857963008</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84044398005803</v>
+        <v>9.840443980058025</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923512</v>
+        <v>33.2844465092351</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684164</v>
+        <v>78.25064706841636</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823533</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653057</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.495680519571</v>
+        <v>173.4956805195709</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148693</v>
+        <v>156.4409233148692</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770395</v>
+        <v>92.67927351770389</v>
       </c>
       <c r="R4" t="n">
-        <v>49.7656809052832</v>
+        <v>49.76568090528317</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735299</v>
+        <v>19.28847761735298</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477781</v>
+        <v>4.729047720477778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354622</v>
+        <v>0.06037082196354619</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33271,7 +33271,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>618.3341264639751</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622166</v>
+        <v>28.37304427622155</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836722</v>
+        <v>93.77486694836705</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176181</v>
+        <v>153.6105215176179</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187896</v>
+        <v>202.9106335187893</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095313</v>
+        <v>210.8543522095311</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099626</v>
+        <v>185.6338248099624</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867852</v>
+        <v>123.5846788678518</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288359</v>
+        <v>44.14760702288342</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272375</v>
+        <v>75.33941902272363</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490984</v>
+        <v>148.0935919490982</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743303</v>
+        <v>192.3706287743301</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684899</v>
+        <v>212.0162936848988</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021684</v>
+        <v>171.5092504021683</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296654</v>
+        <v>118.1229442296653</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083409</v>
+        <v>125.4374011083401</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>105.4826193059189</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256218</v>
+        <v>192.1407623256217</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308617</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
         <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.026051228909</v>
+        <v>181.0260512289089</v>
       </c>
       <c r="P4" t="n">
         <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009562</v>
+        <v>6.517230266009506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676339</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>553.2044093850021</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096341</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>476.2000925419567</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
